--- a/rumination_prompts.xlsx
+++ b/rumination_prompts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b442eee93064521/Documents/TMS_EEG_project/RST_alpha/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Chenxiao/Documents/project_codes/RST_Chinese_beta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{CB7473F0-A2EF-9D47-BD30-C17B62BDB4B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3DFF159-D267-8E4D-8948-5979B4BCC160}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BBAC92-12C1-2A49-B85E-4C1C163733FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3100" yWindow="3120" windowWidth="27640" windowHeight="16940" xr2:uid="{6E9AD0D5-BB09-ED4E-A686-B1F490344749}"/>
+    <workbookView xWindow="10600" yWindow="960" windowWidth="27640" windowHeight="16940" xr2:uid="{6E9AD0D5-BB09-ED4E-A686-B1F490344749}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,16 +44,16 @@
     <t>prompt</t>
   </si>
   <si>
-    <t>Analyze your personality to understand why you feel so distressed about the events you just recalled</t>
-  </si>
-  <si>
-    <t>Why can't I handle things better in the events I just recalled?</t>
-  </si>
-  <si>
-    <t>What kind of person you are revealed by the events you just recalled. What similarities and differences do you have with others?</t>
-  </si>
-  <si>
-    <t>Why did these events I just recalled happen to me, not others?</t>
+    <t>分析一下你的哪些性格特点使得你在刚才的那些负面回忆中感到如此的不开心?</t>
+  </si>
+  <si>
+    <t>刚才的那些负面回忆反映出你是怎样的一个人？你和别人之间有哪些相同点和不同点？</t>
+  </si>
+  <si>
+    <t>为什么刚才的那些负面回忆偏偏发生在我的身上，而不是别人？</t>
+  </si>
+  <si>
+    <t>在刚才的那些负面回忆中，我为什么不能把事情处理得更好？</t>
   </si>
 </sst>
 </file>
@@ -106,10 +106,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -432,7 +428,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -461,7 +457,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -469,7 +465,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -477,7 +473,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
